--- a/ステージセレクト画面のサイズ調整.xlsx
+++ b/ステージセレクト画面のサイズ調整.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C0116051\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C0116051\MyDocuments\Visual Studio 2017\Projects\地球侵略\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7110"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>ステージ番号</t>
     <rPh sb="4" eb="6">
@@ -165,12 +166,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -278,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,6 +309,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O15" sqref="N2:O15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1325,4 +1341,562 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="12" max="12" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="L2" t="str">
+        <f>"{"&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2&amp;","&amp;I2&amp;"}"</f>
+        <v>{-1,-1,-1,-1,-1,-1,-1,-1}</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>350</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L12" si="0">"{"&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;"}"</f>
+        <v>{45,350,0,0,1,3,1,2}</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>160</v>
+      </c>
+      <c r="C4">
+        <v>350</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>{160,350,1,0,2,4,1,5}</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>450</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>{45,450,0,0,1,3,3,4}</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>160</v>
+      </c>
+      <c r="C6">
+        <v>450</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>{160,450,3,0,2,4,4,5}</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>280</v>
+      </c>
+      <c r="C7">
+        <v>404</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2</v>
+      </c>
+      <c r="I7" s="10">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>{280,404,2,4,5,5,2,6}</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>430</v>
+      </c>
+      <c r="C8">
+        <v>350</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>{430,350,5,0,6,8,5,7}</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>550</v>
+      </c>
+      <c r="C9">
+        <v>350</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>{550,350,6,0,7,9,6,10}</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>430</v>
+      </c>
+      <c r="C10">
+        <v>450</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>{430,450,5,0,6,8,5,9}</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>550</v>
+      </c>
+      <c r="C11">
+        <v>450</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>{550,450,8,0,7,9,8,10}</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>667</v>
+      </c>
+      <c r="C12">
+        <v>409</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>{667,409,7,9,10,10,7,10}</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="3:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="8">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="L20:L21"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ステージセレクト画面のサイズ調整.xlsx
+++ b/ステージセレクト画面のサイズ調整.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7110" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -295,6 +295,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,9 +318,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1274,16 +1274,16 @@
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>9</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>11</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <v>13</v>
       </c>
       <c r="M17" t="s">
@@ -1294,12 +1294,12 @@
       <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="1">
         <v>6</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
       <c r="M18" t="s">
         <v>14</v>
       </c>
@@ -1308,27 +1308,27 @@
       <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>10</v>
       </c>
       <c r="E19" s="2">
         <v>7</v>
       </c>
-      <c r="F19" s="3">
-        <v>12</v>
-      </c>
-      <c r="G19" s="6"/>
+      <c r="F19" s="4">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="3:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="1">
         <v>8</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1561,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>{160,450,3,0,2,4,4,5}</v>
+        <v>{160,450,3,0,2,4,3,5}</v>
       </c>
       <c r="M6" t="s">
         <v>12</v>
@@ -1599,10 +1599,10 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="3">
         <v>2</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="3">
         <v>6</v>
       </c>
       <c r="J7">
@@ -1794,7 +1794,7 @@
       <c r="G12">
         <v>10</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="3">
         <v>7</v>
       </c>
       <c r="I12">
@@ -1816,10 +1816,10 @@
       <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>11</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>13</v>
       </c>
       <c r="K14" t="s">
@@ -1830,8 +1830,8 @@
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="K15" t="s">
         <v>14</v>
       </c>
@@ -1840,17 +1840,17 @@
       <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="D16" s="3">
-        <v>12</v>
-      </c>
-      <c r="E16" s="6"/>
+      <c r="D16" s="4">
+        <v>12</v>
+      </c>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="3:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C17" s="1">
         <v>4</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G20">
@@ -1859,7 +1859,7 @@
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="9">
         <v>5</v>
       </c>
       <c r="J20">
@@ -1868,7 +1868,7 @@
       <c r="K20">
         <v>7</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1879,14 +1879,14 @@
       <c r="H21">
         <v>4</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="9"/>
       <c r="J21">
         <v>8</v>
       </c>
       <c r="K21">
         <v>9</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
